--- a/Initialization/schemas/Government_schema.xlsx
+++ b/Initialization/schemas/Government_schema.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MiniACE\Initialization\schemas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Government" sheetId="1" r:id="rId1"/>
     <sheet name="Government.xml" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,11 +39,14 @@
   <connection id="6" name="Government" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Government.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="7" name="Government1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Government.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -177,16 +175,22 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,112 +272,125 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,48 +417,186 @@
 </styleSheet>
 </file>
 
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="states">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="xagent" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="region_id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="day_of_month_to_act" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="payment_account" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="current_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="non_current_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_liabilities" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="cb_debt" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="equity" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="interest_rate_on_cb_debt" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_interest_payments" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="yearly_interest_payments" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_tax_income" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="yearly_tax_income" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_public_transfers_expenditure" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="yearly_public_transfers_expenditure" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_bailout_expenditure" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="yearly_bailout_expenditure" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_benefits_expenditure" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="yearly_benefits_expenditur" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="yearly_income" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="yearly_expenditure" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_gdp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="yearly_gdp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="price_level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="inflation" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="mean_wage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="unemployment_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="vat_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="income_tax_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="capital_tax_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="debt_to_gdp_ratio" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="unemployment_benefits_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="public_transfers_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="budget_balance" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="initialization" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="states_Map" RootElement="states" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:AL2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AL2" tableType="xml" totalsRowShown="0" connectionId="7">
   <autoFilter ref="A1:AL2"/>
   <tableColumns count="38">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="id"/>
-    <tableColumn id="3" name="region_id"/>
-    <tableColumn id="4" name="day_of_month_to_act"/>
-    <tableColumn id="5" name="total_assets" dataDxfId="33"/>
-    <tableColumn id="6" name="payment_account" dataDxfId="32"/>
-    <tableColumn id="7" name="current_assets" dataDxfId="31"/>
-    <tableColumn id="8" name="non_current_assets" dataDxfId="30"/>
-    <tableColumn id="9" name="total_liabilities" dataDxfId="29"/>
-    <tableColumn id="10" name="cb_debt" dataDxfId="28"/>
-    <tableColumn id="11" name="equity" dataDxfId="27"/>
-    <tableColumn id="12" name="interest_rate_on_cb_debt" dataDxfId="26"/>
-    <tableColumn id="13" name="monthly_interest_payments" dataDxfId="25"/>
-    <tableColumn id="14" name="yearly_interest_payments" dataDxfId="24"/>
-    <tableColumn id="15" name="monthly_tax_income" dataDxfId="23"/>
-    <tableColumn id="16" name="yearly_tax_income" dataDxfId="22"/>
-    <tableColumn id="17" name="monthly_public_transfers_expenditure" dataDxfId="21"/>
-    <tableColumn id="18" name="yearly_public_transfers_expenditure" dataDxfId="20"/>
-    <tableColumn id="19" name="monthly_bailout_expenditure" dataDxfId="19"/>
-    <tableColumn id="20" name="yearly_bailout_expenditure" dataDxfId="18"/>
-    <tableColumn id="21" name="monthly_benefits_expenditure" dataDxfId="17"/>
-    <tableColumn id="22" name="yearly_benefits_expenditur" dataDxfId="16"/>
-    <tableColumn id="23" name="yearly_income" dataDxfId="15"/>
-    <tableColumn id="24" name="yearly_expenditure" dataDxfId="14"/>
-    <tableColumn id="25" name="monthly_gdp" dataDxfId="13"/>
-    <tableColumn id="26" name="yearly_gdp" dataDxfId="12"/>
-    <tableColumn id="27" name="price_level" dataDxfId="11"/>
-    <tableColumn id="28" name="inflation" dataDxfId="10"/>
-    <tableColumn id="29" name="mean_wage" dataDxfId="9"/>
-    <tableColumn id="30" name="unemployment_rate" dataDxfId="8"/>
-    <tableColumn id="31" name="vat_rate" dataDxfId="7"/>
-    <tableColumn id="32" name="income_tax_rate" dataDxfId="6"/>
-    <tableColumn id="33" name="capital_tax_rate" dataDxfId="5"/>
-    <tableColumn id="34" name="debt_to_gdp_ratio" dataDxfId="4"/>
-    <tableColumn id="35" name="unemployment_benefits_rate" dataDxfId="3"/>
-    <tableColumn id="36" name="public_transfers_rate" dataDxfId="2"/>
-    <tableColumn id="37" name="budget_balance" dataDxfId="1"/>
-    <tableColumn id="38" name="initialization" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="name" name="name" dataDxfId="37">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="id" name="id" dataDxfId="36">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="region_id" name="region_id" dataDxfId="35">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/region_id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="day_of_month_to_act" name="day_of_month_to_act" dataDxfId="34">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/day_of_month_to_act" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="total_assets" name="total_assets" dataDxfId="33">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="payment_account" name="payment_account" dataDxfId="32">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/payment_account" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="current_assets" name="current_assets" dataDxfId="31">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/current_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="non_current_assets" name="non_current_assets" dataDxfId="30">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/non_current_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="total_liabilities" name="total_liabilities" dataDxfId="29">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_liabilities" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="cb_debt" name="cb_debt" dataDxfId="28">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/cb_debt" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="equity" name="equity" dataDxfId="27">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/equity" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="interest_rate_on_cb_debt" name="interest_rate_on_cb_debt" dataDxfId="26">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/interest_rate_on_cb_debt" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="monthly_interest_payments" name="monthly_interest_payments" dataDxfId="25">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_interest_payments" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="yearly_interest_payments" name="yearly_interest_payments" dataDxfId="24">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/yearly_interest_payments" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="monthly_tax_income" name="monthly_tax_income" dataDxfId="23">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_tax_income" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="yearly_tax_income" name="yearly_tax_income" dataDxfId="22">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/yearly_tax_income" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="monthly_public_transfers_expenditure" name="monthly_public_transfers_expenditure" dataDxfId="21">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_public_transfers_expenditure" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="yearly_public_transfers_expenditure" name="yearly_public_transfers_expenditure" dataDxfId="20">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/yearly_public_transfers_expenditure" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="monthly_bailout_expenditure" name="monthly_bailout_expenditure" dataDxfId="19">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_bailout_expenditure" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="yearly_bailout_expenditure" name="yearly_bailout_expenditure" dataDxfId="18">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/yearly_bailout_expenditure" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="monthly_benefits_expenditure" name="monthly_benefits_expenditure" dataDxfId="17">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_benefits_expenditure" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="yearly_benefits_expenditur" name="yearly_benefits_expenditur" dataDxfId="16">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/yearly_benefits_expenditur" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="23" uniqueName="yearly_income" name="yearly_income" dataDxfId="15">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/yearly_income" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="24" uniqueName="yearly_expenditure" name="yearly_expenditure" dataDxfId="14">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/yearly_expenditure" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="25" uniqueName="monthly_gdp" name="monthly_gdp" dataDxfId="13">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_gdp" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="yearly_gdp" name="yearly_gdp" dataDxfId="12">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/yearly_gdp" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="price_level" name="price_level" dataDxfId="11">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/price_level" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="inflation" name="inflation" dataDxfId="10">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/inflation" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="mean_wage" name="mean_wage" dataDxfId="9">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/mean_wage" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="unemployment_rate" name="unemployment_rate" dataDxfId="8">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/unemployment_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="31" uniqueName="vat_rate" name="vat_rate" dataDxfId="7">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/vat_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="32" uniqueName="income_tax_rate" name="income_tax_rate" dataDxfId="6">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/income_tax_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="33" uniqueName="capital_tax_rate" name="capital_tax_rate" dataDxfId="5">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/capital_tax_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="34" uniqueName="debt_to_gdp_ratio" name="debt_to_gdp_ratio" dataDxfId="4">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/debt_to_gdp_ratio" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="35" uniqueName="unemployment_benefits_rate" name="unemployment_benefits_rate" dataDxfId="3">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/unemployment_benefits_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="36" uniqueName="public_transfers_rate" name="public_transfers_rate" dataDxfId="2">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/public_transfers_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="37" uniqueName="budget_balance" name="budget_balance" dataDxfId="1">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/budget_balance" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="38" uniqueName="initialization" name="initialization" dataDxfId="0">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/initialization" xmlDataType="string"/>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,7 +645,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -525,7 +680,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -702,21 +857,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AL3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL3" sqref="A3:AL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -755,7 +910,7 @@
     <col min="38" max="38" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -871,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -987,123 +1142,123 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:38">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
+      <c r="E3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="10">
         <v>1</v>
       </c>
-      <c r="AB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:38">
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1112,7 +1267,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1121,7 +1276,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1130,7 +1285,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1139,7 +1294,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1148,7 +1303,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1157,7 +1312,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1166,7 +1321,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1175,7 +1330,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1184,7 +1339,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1193,7 +1348,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1202,7 +1357,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1211,7 +1366,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1220,7 +1375,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1229,7 +1384,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1238,7 +1393,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:11">
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1247,7 +1402,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11">
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1263,20 +1418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="12" customWidth="1"/>
     <col min="10" max="64" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1392,119 +1547,119 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:64">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3">
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="10">
         <v>0.2</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2" s="10">
         <v>0.2</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2" s="10">
         <v>0.1</v>
       </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3">
+      <c r="AH2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="10">
         <v>0.7</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="4">
+      <c r="AK2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="10">
         <v>1</v>
       </c>
       <c r="AM2" s="3"/>
@@ -1531,7 +1686,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64">
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1585,7 +1740,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1639,7 +1794,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64">
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1693,7 +1848,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64">
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1747,7 +1902,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64">
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
